--- a/Crawling/music/crawled_data/outlier_data/2022-05-09_2022-05-15/naver_datalab/outliers/무지개_임영웅.xlsx
+++ b/Crawling/music/crawled_data/outlier_data/2022-05-09_2022-05-15/naver_datalab/outliers/무지개_임영웅.xlsx
@@ -17,7 +17,7 @@
     <t>url</t>
   </si>
   <si>
-    <t>http://datalab.naver.com/keyword/trendResult.naver?hashKey=N_3f53e249ddda4de776807f572a424a3d</t>
+    <t>http://datalab.naver.com/keyword/trendResult.naver?hashKey=N_00c663a10f994f509bc1f5b8af313cb8</t>
   </si>
   <si>
     <t>주제</t>
@@ -35,7 +35,7 @@
     <t>기간</t>
   </si>
   <si>
-    <t>일간 : 2022-04-16 ~ 2022-05-16</t>
+    <t>일간 : 2022-04-18 ~ 2022-05-18</t>
   </si>
   <si>
     <t>성별</t>
@@ -56,18 +56,6 @@
     <t>무지개</t>
   </si>
   <si>
-    <t>2022-04-16</t>
-  </si>
-  <si>
-    <t>4.54407</t>
-  </si>
-  <si>
-    <t>2022-04-17</t>
-  </si>
-  <si>
-    <t>4.92822</t>
-  </si>
-  <si>
     <t>2022-04-18</t>
   </si>
   <si>
@@ -240,6 +228,18 @@
   </si>
   <si>
     <t>5.9543</t>
+  </si>
+  <si>
+    <t>2022-05-17</t>
+  </si>
+  <si>
+    <t>5.98968</t>
+  </si>
+  <si>
+    <t>2022-05-18</t>
+  </si>
+  <si>
+    <t>5.77234</t>
   </si>
 </sst>
 </file>
